--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1842055.808245994</v>
+        <v>1946235.442697066</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>46.94048797913204</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>101.3230871672193</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +788,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>105.8494828513098</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>219.7424761510975</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>285.352300719594</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.7971664995892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>50.54742586620372</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>87.81173087005219</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>101.9220711724791</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>99.39271963690005</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>115.7445899312183</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>73.76644839717707</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>39.56681219551407</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>62.63443603047482</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>156.8624097380494</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695544</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>36.4306205949047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>151.0429659719018</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>35.02467705292099</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>147.2606364488718</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="U28" t="n">
-        <v>252.0975639989364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>68.17501931583936</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>216.4795114578097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>109.1623230749908</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>105.8965430419528</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>158.0416127628559</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>13.03790159951636</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.839588425939253</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4355,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3278.191187286815</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3072.213439671037</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.213439671037</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.213439671037</v>
+        <v>2653.460376100163</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.444784400922</v>
+        <v>2300.691720830048</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.979026139843</v>
+        <v>1927.225962568968</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1537.086630593157</v>
       </c>
     </row>
     <row r="3">
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,7 +4451,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>813.9683362714073</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>813.9683362714073</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>524.8654693970509</v>
+        <v>609.0944514533921</v>
       </c>
       <c r="V4" t="n">
-        <v>524.8654693970509</v>
+        <v>609.0944514533921</v>
       </c>
       <c r="W4" t="n">
-        <v>235.4482993600903</v>
+        <v>609.0944514533921</v>
       </c>
       <c r="X4" t="n">
-        <v>235.4482993600903</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2222.416181075866</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1853.453664135455</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1495.187965528704</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1109.39971293046</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4565,25 +4567,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259409</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2609.016021139988</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>410.6772566376943</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4749,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>742.3578305251551</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>742.3578305251551</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>453.2549636507987</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>453.2549636507987</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>163.8377936138381</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X7" t="n">
-        <v>163.8377936138381</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>410.6772566376943</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3222.654234566263</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3016.676486950485</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3016.676486950485</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2685.613599606915</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.8449443368</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.379186075721</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="10">
@@ -4936,52 +4938,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.555433640143</v>
+        <v>427.6414683149992</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>427.6414683149992</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
         <v>831.0565485757129</v>
@@ -4990,22 +4992,22 @@
         <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W10" t="n">
-        <v>756.5449845381603</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X10" t="n">
-        <v>528.555433640143</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="Y10" t="n">
-        <v>528.555433640143</v>
+        <v>609.2899331452389</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5227,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.917939501689</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>920.9817565737817</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>770.8651171614459</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E16" t="n">
-        <v>622.9520235790528</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>476.0620760811424</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.348534373476</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.358983475458</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1271.566404331928</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2190.563011941682</v>
+        <v>2044.493892990697</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.48778528588</v>
+        <v>1755.418666334894</v>
       </c>
       <c r="V19" t="n">
-        <v>1646.803297079993</v>
+        <v>1500.734178129007</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.317008092047</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3274571940295</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014847</v>
+        <v>762.5348780504994</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3113.560578231862</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>2944.624395303955</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D22" t="n">
-        <v>2794.50775589162</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4542.08503477347</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4322.483569796412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4033.40834314061</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4033.40834314061</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3743.991173103649</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3516.001622205632</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3295.209043062102</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6186,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6312,16 +6314,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>4582.346174342407</v>
       </c>
       <c r="U28" t="n">
-        <v>2009.464245195835</v>
+        <v>4293.270947686605</v>
       </c>
       <c r="V28" t="n">
-        <v>1754.779756989948</v>
+        <v>4038.586459480718</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>3749.169289443757</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>3521.17973854574</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1888.077129657224</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2311.700279152292</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2544.961939527175</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6865,43 +6867,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.91737983266</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487564</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487564</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192595</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2086.797572684546</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1797.722346028744</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7606,13 +7608,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,10 +7651,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7661,10 +7663,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1018.438627038651</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>849.5024441107445</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>699.3858046984087</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E46" t="n">
-        <v>551.4727111160156</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F46" t="n">
-        <v>404.5827636181052</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G46" t="n">
-        <v>237.3866643329852</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>95.67483317518324</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1938.286391947399</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1648.869221910438</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1420.879671012421</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1200.087091868891</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.79952661609434</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.661728554219451</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.36248435538644</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>33.76564955277274</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>285.9032928766021</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516635</v>
       </c>
       <c r="U28" t="n">
-        <v>34.08691039030774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>80.44045370237299</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>69.70496293143444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>108.2431272522975</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>61.35027805667502</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.5430405892389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>152.4862366927525</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>79.42624789262628</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998144</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830042</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830044</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26442,7 +26444,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880399</v>
+        <v>-955546.19148804</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395529</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395526</v>
+        <v>373198.5542395528</v>
       </c>
       <c r="E6" t="n">
-        <v>122421.0441798502</v>
+        <v>122421.0441798501</v>
       </c>
       <c r="F6" t="n">
+        <v>447833.505987205</v>
+      </c>
+      <c r="G6" t="n">
         <v>447833.5059872053</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>447833.5059872054</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>447833.5059872053</v>
       </c>
-      <c r="I6" t="n">
-        <v>447833.5059872052</v>
-      </c>
       <c r="J6" t="n">
-        <v>230302.3035899278</v>
+        <v>230302.3035899277</v>
       </c>
       <c r="K6" t="n">
-        <v>447833.5059872052</v>
+        <v>447833.5059872051</v>
       </c>
       <c r="L6" t="n">
+        <v>447833.5059872054</v>
+      </c>
+      <c r="M6" t="n">
+        <v>362778.4780516934</v>
+      </c>
+      <c r="N6" t="n">
         <v>447833.5059872053</v>
       </c>
-      <c r="M6" t="n">
-        <v>362778.4780516933</v>
-      </c>
-      <c r="N6" t="n">
-        <v>447833.5059872055</v>
-      </c>
       <c r="O6" t="n">
-        <v>447833.5059872053</v>
+        <v>447833.5059872051</v>
       </c>
       <c r="P6" t="n">
         <v>447833.5059872053</v>
@@ -26793,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.2472738090438</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>226.4291713029156</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>83.91954248013212</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>66.46936205451533</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.5237450221175</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.44077215646439</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>116.6993952324241</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>101.9572944613897</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7.265690615696769</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>249.848249080513</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>32.87088308699407</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>212.7565499394139</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026443</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32081,13 +32083,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,10 +32320,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647492</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32725,7 +32727,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>153.8606640989137</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>615.1181176946646</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,10 +34152,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597762</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427309</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36911,16 +36913,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.181160134949776</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37235,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010421</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>483.7764056113314</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1946235.442697066</v>
+        <v>1942222.832683073</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>299.4782125119771</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -715,16 +715,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>101.3230871672193</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>219.7424761510975</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>285.352300719594</v>
+        <v>187.6301673233147</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50.54742586620372</v>
+        <v>94.57983363107959</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>85.87308903366252</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>99.39271963690005</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>115.7445899312183</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>39.56681219551407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>41.74133133758715</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>62.63443603047482</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>20.3842717819797</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0429659719018</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.02467705292099</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6197054599889589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>125.2700607443044</v>
       </c>
     </row>
     <row r="29">
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>68.17501931583936</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>139.9371893537533</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.88641949135589</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>105.8965430419528</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>13.03790159951636</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1505.370017933392</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>708.5958605455405</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2653.460376100163</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2300.691720830048</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.225962568968</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y2" t="n">
-        <v>1537.086630593157</v>
+        <v>2619.198073544676</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,7 +4451,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.1049005553748</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>381.1049005553748</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>609.0944514533921</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>609.0944514533921</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>609.0944514533921</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>381.1049005553748</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.1049005553748</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2222.416181075866</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C5" t="n">
-        <v>1853.453664135455</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="D5" t="n">
-        <v>1495.187965528704</v>
+        <v>1396.478739875897</v>
       </c>
       <c r="E5" t="n">
-        <v>1109.39971293046</v>
+        <v>1010.690487277653</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.016021139988</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2609.016021139988</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410.6772566376943</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C7" t="n">
-        <v>359.619250712236</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.6772566376943</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1151.298377994912</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>782.3358610545008</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3238.865327635775</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3238.865327635775</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2985.334850909611</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2654.27196356604</v>
       </c>
       <c r="W8" t="n">
-        <v>2324.347354948834</v>
+        <v>2301.503308295926</v>
       </c>
       <c r="X8" t="n">
-        <v>2324.347354948834</v>
+        <v>1928.037550034846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1934.208022973022</v>
+        <v>1537.898218059034</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>427.6414683149992</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>427.6414683149992</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,13 +5056,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>991.7436897307817</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>822.8075068028749</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>672.6908673905391</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>524.777773808146</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704551</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1173.392154561021</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>527.7722521572603</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>256.118667722925</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>114.4068365651231</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2381.235169913445</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.493892990697</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.418666334894</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.734178129007</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.317008092047</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3274571940295</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>565.7099969556945</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>417.7969033733013</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>270.906955875391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6010,22 +6010,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
         <v>402.7245934908939</v>
@@ -6141,10 +6141,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4582.346174342407</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4293.270947686605</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4038.586459480718</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3749.169289443757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306003</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>2655.833190378096</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>2586.969534503511</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>2586.969534503511</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2410.714175003133</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2410.714175003133</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.112710026075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7016,19 +7016,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7502,10 +7502,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947872</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>335.9629114732377</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>189.0729639753273</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
   </sheetData>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922719</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>98.55338150863673</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>83.79952661609434</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.88156453658583</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.36248435538644</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>130.4994612393479</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>93.31459260779042</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.44045370237299</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>85.77246603528388</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>30.48882721876579</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>61.35027805667502</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>211.5151132204106</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.619783004</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
@@ -26334,13 +26334,13 @@
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="K2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
@@ -26352,10 +26352,10 @@
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26438,7 +26438,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.19148804</v>
+        <v>-955546.1914880398</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395529</v>
+        <v>373198.5542395528</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395528</v>
+        <v>373198.5542395527</v>
       </c>
       <c r="E6" t="n">
-        <v>122421.0441798501</v>
+        <v>122073.664925493</v>
       </c>
       <c r="F6" t="n">
-        <v>447833.505987205</v>
+        <v>447486.1267328482</v>
       </c>
       <c r="G6" t="n">
-        <v>447833.5059872053</v>
+        <v>447486.1267328483</v>
       </c>
       <c r="H6" t="n">
-        <v>447833.5059872054</v>
+        <v>447486.1267328484</v>
       </c>
       <c r="I6" t="n">
-        <v>447833.5059872053</v>
+        <v>447486.1267328485</v>
       </c>
       <c r="J6" t="n">
-        <v>230302.3035899277</v>
+        <v>229954.9243355709</v>
       </c>
       <c r="K6" t="n">
-        <v>447833.5059872051</v>
+        <v>447486.1267328483</v>
       </c>
       <c r="L6" t="n">
-        <v>447833.5059872054</v>
+        <v>447486.1267328484</v>
       </c>
       <c r="M6" t="n">
-        <v>362778.4780516934</v>
+        <v>362431.0987973366</v>
       </c>
       <c r="N6" t="n">
-        <v>447833.5059872053</v>
+        <v>447486.1267328483</v>
       </c>
       <c r="O6" t="n">
-        <v>447833.5059872051</v>
+        <v>447486.1267328484</v>
       </c>
       <c r="P6" t="n">
-        <v>447833.5059872053</v>
+        <v>447486.1267328484</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973558</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>111.4435131414763</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>226.4291713029156</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>66.46936205451533</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>121.5237450221175</v>
+        <v>219.2458784183968</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>116.6993952324241</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.31467275451331</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>249.848249080513</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>32.87088308699407</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>463.4318227833011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647492</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460039</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32548,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>604.7968300725072</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597762</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>462.2005856280628</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1942222.832683073</v>
+        <v>1943983.362985858</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>299.4782125119771</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>92.47445699814216</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>203.7029035467944</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.6301673233147</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>116.9388157418483</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>94.57983363107959</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>75.83680089291366</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>85.87308903366252</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>41.74133133758715</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>20.3842717819797</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>48.34531439065386</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.2700607443044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>82.30974811734292</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9371893537533</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>180.1003471321689</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>73.36618625358827</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3954,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>26.1362719570585</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2232.598233480554</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1863.635716540143</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1505.370017933392</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1119.581765335148</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>708.5958605455405</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2619.198073544676</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>1754.744438482646</v>
       </c>
       <c r="C5" t="n">
-        <v>1754.744438482647</v>
+        <v>1754.744438482646</v>
       </c>
       <c r="D5" t="n">
-        <v>1396.478739875897</v>
+        <v>1396.478739875896</v>
       </c>
       <c r="E5" t="n">
-        <v>1010.690487277653</v>
+        <v>1010.690487277651</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>599.7045824880438</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>184.6321323330403</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546769</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1151.298377994912</v>
+        <v>2124.186667467493</v>
       </c>
       <c r="C8" t="n">
-        <v>782.3358610545008</v>
+        <v>1755.224150527082</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>1396.958451920331</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>1011.170199322087</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>600.1842945324795</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>185.111844377476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3238.865327635775</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3238.865327635775</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2985.334850909611</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2654.27196356604</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2301.503308295926</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>1928.037550034846</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1537.898218059034</v>
+        <v>2510.786507531615</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="11">
@@ -5023,46 +5023,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929399</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>135.9796239950296</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>256.118667722925</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>256.118667722925</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>114.4068365651231</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6141,10 +6141,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,13 +6171,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>789.7592298206043</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>456.5257005456925</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>309.6357530477821</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2131.487582220359</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922719</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>98.55338150863673</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>60.88156453658583</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>98.0886482559153</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.31459260779042</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>64.12421452922625</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>85.77246603528388</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.9259388694757149</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.15795203868058</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>191.2691783702298</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998144</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049986</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830044</v>
@@ -26346,10 +26346,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26438,7 +26438,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880398</v>
+        <v>-955546.1914880394</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395528</v>
+        <v>373198.5542395525</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395526</v>
       </c>
       <c r="E6" t="n">
-        <v>122073.664925493</v>
+        <v>122386.3062544142</v>
       </c>
       <c r="F6" t="n">
-        <v>447486.1267328482</v>
+        <v>447798.7680617695</v>
       </c>
       <c r="G6" t="n">
-        <v>447486.1267328483</v>
+        <v>447798.7680617694</v>
       </c>
       <c r="H6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617694</v>
       </c>
       <c r="I6" t="n">
-        <v>447486.1267328485</v>
+        <v>447798.7680617694</v>
       </c>
       <c r="J6" t="n">
-        <v>229954.9243355709</v>
+        <v>230267.5656644923</v>
       </c>
       <c r="K6" t="n">
-        <v>447486.1267328483</v>
+        <v>447798.7680617695</v>
       </c>
       <c r="L6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617697</v>
       </c>
       <c r="M6" t="n">
-        <v>362431.0987973366</v>
+        <v>362743.7401262577</v>
       </c>
       <c r="N6" t="n">
-        <v>447486.1267328483</v>
+        <v>447798.7680617694</v>
       </c>
       <c r="O6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617697</v>
       </c>
       <c r="P6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617697</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>111.4435131414763</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803269</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530036</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.2458784183968</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>177.6689486454722</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>72.66698746754824</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>218.7709634944068</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>23.31467275451331</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>75.3937597837285</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32244,7 +32244,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
